--- a/Tables_Figures/output/table03_SR_integration_ratings.xlsx
+++ b/Tables_Figures/output/table03_SR_integration_ratings.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Semantic.Integration</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Unrelated</t>
   </si>
   <si>
-    <t>pval</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Integrated</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Unintegrated</t>
   </si>
   <si>
-    <t>Int. vs. Unint. p-val: 1.796443e-12 ***</t>
-  </si>
-  <si>
     <t>Note: Scale was 1 (not linked) to 7 (tightly linked).</t>
   </si>
   <si>
@@ -114,12 +105,6 @@
   </si>
   <si>
     <t>2.63</t>
-  </si>
-  <si>
-    <t>1.04934e-11 ***</t>
-  </si>
-  <si>
-    <t>1.538543e-13 ***</t>
   </si>
 </sst>
 </file>
@@ -184,168 +169,124 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Tables_Figures/output/table03_SR_integration_ratings.xlsx
+++ b/Tables_Figures/output/table03_SR_integration_ratings.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Semantic.Integration</t>
   </si>
@@ -24,27 +24,6 @@
   </si>
   <si>
     <t>Unrelated</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>Integrated</t>
@@ -156,17 +135,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -175,16 +153,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -192,101 +167,83 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
